--- a/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>13.27042141797416</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.6803438013925298</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1810347255599485</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1615533264691585</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.754507615626635</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -906,10 +914,18 @@
       <c r="H13" t="n">
         <v>12.42443451159217</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>-0.4897537921999018</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.09389166313028015</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4678594645122884</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.483941302951547</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1108,10 +1124,18 @@
       <c r="H18" t="n">
         <v>7.557146160415116</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.8889696259588566</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2256804261455844</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2480950099360809</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.281291930843965</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
@@ -1166,10 +1166,18 @@
       <c r="H19" t="n">
         <v>6.93498853200975</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.8738619947286198</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1872709478582608</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1902102483788586</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.518181527300346</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
@@ -620,19 +620,19 @@
         <v>0.2876712328767123</v>
       </c>
       <c r="D5" t="n">
-        <v>119494.2325899234</v>
+        <v>119494.7520288914</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03212500881635628</v>
+        <v>-0.03204552360320836</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2552964110579239</v>
+        <v>0.2545398186810214</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.049983741144244</v>
+        <v>-3.019765692185008</v>
       </c>
       <c r="H5" t="n">
-        <v>29.73327400073528</v>
+        <v>29.31631896758674</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4602739726027397</v>
       </c>
       <c r="D7" t="n">
-        <v>121324.6314704079</v>
+        <v>121432.7456996691</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03669895562493336</v>
+        <v>-0.03302672754561237</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2470207079726574</v>
+        <v>0.2347164006722956</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.029456272746876</v>
+        <v>-0.7972459370300036</v>
       </c>
       <c r="H7" t="n">
-        <v>7.324588606085391</v>
+        <v>6.055105716062216</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7863013698630137</v>
       </c>
       <c r="D8" t="n">
-        <v>121989.47221227</v>
+        <v>121924.6873696327</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04754814535694262</v>
+        <v>-0.04917568539811389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2035561156440377</v>
+        <v>0.2080523357338072</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6724411049485408</v>
+        <v>-0.7777516457370579</v>
       </c>
       <c r="H8" t="n">
-        <v>5.989047455454138</v>
+        <v>6.578587421454435</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.863013698630137</v>
       </c>
       <c r="D9" t="n">
-        <v>124065.129025836</v>
+        <v>124086.7039635979</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07775972654346529</v>
+        <v>-0.07663443972923126</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3438219641269797</v>
+        <v>0.3374900485706538</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.710347177185739</v>
+        <v>-1.592942164420613</v>
       </c>
       <c r="H9" t="n">
-        <v>11.38372064564723</v>
+        <v>10.32990551740569</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.112328767123288</v>
       </c>
       <c r="D10" t="n">
-        <v>125312.9721653883</v>
+        <v>125316.744510438</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.113594229021686</v>
+        <v>-0.113240112366871</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4329190477621151</v>
+        <v>0.4305583691303654</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.92771024440816</v>
+        <v>-1.897574950301293</v>
       </c>
       <c r="H10" t="n">
-        <v>10.09236949706644</v>
+        <v>9.820113034899308</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.358904109589041</v>
       </c>
       <c r="D11" t="n">
-        <v>130439.4171351477</v>
+        <v>127039.6284207866</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.09688059124636833</v>
+        <v>-0.1901139740748309</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4212002747733249</v>
+        <v>0.752852153138254</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.754701564660751</v>
+        <v>-2.605715163127442</v>
       </c>
       <c r="H11" t="n">
-        <v>7.748917414388435</v>
+        <v>12.73584718709789</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D13" t="n">
-        <v>117221.8557032007</v>
+        <v>117239.6927717878</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04498406762761926</v>
+        <v>-0.04358959310176971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.138254984383667</v>
+        <v>0.1312340009540396</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.316101507792942</v>
+        <v>-0.8517391197987699</v>
       </c>
       <c r="H13" t="n">
-        <v>12.42443451159217</v>
+        <v>7.967351353277716</v>
       </c>
       <c r="I13" t="n">
         <v>-0.4897537921999018</v>
@@ -942,19 +942,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D14" t="n">
-        <v>117157.8692802201</v>
+        <v>117165.1276435176</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06487290700707481</v>
+        <v>-0.063930288213675</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1240185118269958</v>
+        <v>0.1157528327797027</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.416270733974036</v>
+        <v>-1.350851472204498</v>
       </c>
       <c r="H14" t="n">
-        <v>27.46440155551647</v>
+        <v>8.931316976582947</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2340315426159329</v>
@@ -1068,19 +1068,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D17" t="n">
-        <v>117123.9917005747</v>
+        <v>117264.8404666179</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.09202634960936924</v>
+        <v>-0.04708520277054174</v>
       </c>
       <c r="F17" t="n">
-        <v>1.890235515516009</v>
+        <v>0.1380061068974084</v>
       </c>
       <c r="G17" t="n">
-        <v>-30.24303958046585</v>
+        <v>-0.9571117429892404</v>
       </c>
       <c r="H17" t="n">
-        <v>1124.997654594594</v>
+        <v>9.835338132462677</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4085669230351474</v>
@@ -1194,19 +1194,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D20" t="n">
-        <v>118086.5820297634</v>
+        <v>118126.2829171024</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0179821932521192</v>
+        <v>-0.01615442316895325</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1528020296121677</v>
+        <v>0.1467957770552073</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7008026904072328</v>
+        <v>-0.4985937497794729</v>
       </c>
       <c r="H20" t="n">
-        <v>7.515741444714706</v>
+        <v>6.61528812132168</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.83288618160184</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.7688650422146329</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1908983664930921</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1767970433019267</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.248246926221862</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1208,10 +1216,18 @@
       <c r="H20" t="n">
         <v>6.61528812132168</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.7645586780137135</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2018582675533268</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.16474925042982</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.199959973289821</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDQMOMENT_20250815.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>11.30089800010525</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.7175322941186084</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4690546999669646</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6624895649182415</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.175250609064786</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
